--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationquantity.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationquantity.xlsx
@@ -1250,7 +1250,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>84</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationquantity.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationquantity.xlsx
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>84</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationquantity.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationquantity.xlsx
@@ -249,7 +249,7 @@
     <t>薬剤に関する数量と単位を定めたデータイプ</t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めている。【JP Core仕様】単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -276,10 +276,10 @@
 </t>
   </si>
   <si>
-    <t>エレメント間参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>エレメント間参照のためのユニークID。空白を含まない全ての文字を使ってもよい(MAY)。</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
